--- a/cardapio_tms_notebook.xlsx
+++ b/cardapio_tms_notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{91DC609E-9E28-4110-BF60-859776182C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F416B99A-3CFB-421A-8174-98FCC29A07AC}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{91DC609E-9E28-4110-BF60-859776182C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708D7C38-4078-4234-9390-EEB155AF7888}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{682419BA-5BBE-4A05-BEB1-E011B3D0590E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="88">
   <si>
     <t>Modelo</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Windows 11 Home</t>
   </si>
   <si>
-    <t>8 GB</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>NP750XGJ-KG2BR</t>
   </si>
   <si>
-    <t>16 GB</t>
-  </si>
-  <si>
     <t>FOCO</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>NP960XGL-XG1BR</t>
   </si>
   <si>
-    <t>4 GB</t>
-  </si>
-  <si>
-    <t>32 GB</t>
-  </si>
-  <si>
     <t>1.86 kg</t>
   </si>
   <si>
@@ -255,21 +243,6 @@
   </si>
   <si>
     <t>Core Ultra 9 - 14ª Geração</t>
-  </si>
-  <si>
-    <t>512 GB</t>
-  </si>
-  <si>
-    <t>256 GB</t>
-  </si>
-  <si>
-    <t>128 GB</t>
-  </si>
-  <si>
-    <t>1000 GB</t>
-  </si>
-  <si>
-    <t>64 GB</t>
   </si>
   <si>
     <t>15,6"</t>
@@ -428,23 +401,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,7 +879,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -940,28 +913,28 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -969,34 +942,34 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>512</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>6</v>
@@ -1007,34 +980,34 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>73</v>
+      <c r="E3" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>512</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>6</v>
@@ -1045,34 +1018,34 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>73</v>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>512</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>6</v>
@@ -1083,34 +1056,34 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>74</v>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>256</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>6</v>
@@ -1124,31 +1097,31 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>74</v>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>256</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>6</v>
@@ -1156,78 +1129,78 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="4">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>512</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>73</v>
+      <c r="E8" s="4">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>512</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1235,31 +1208,31 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>128</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>6</v>
@@ -1270,78 +1243,78 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>512</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>256</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1349,37 +1322,37 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1387,75 +1360,75 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>512</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="4">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>512</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1463,221 +1436,221 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4">
+        <v>512</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="4">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4">
+        <v>512</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="4">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="4">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="4">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>64</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>6</v>
@@ -1688,34 +1661,34 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>32</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>6</v>
@@ -1726,34 +1699,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>64</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>6</v>
@@ -1770,28 +1743,28 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>75</v>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>128</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>6</v>
@@ -1805,37 +1778,37 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>256</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="K24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1843,37 +1816,37 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>512</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="K25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1881,37 +1854,37 @@
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>256</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1919,189 +1892,189 @@
         <v>7</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="4">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4">
+        <v>512</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="6">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4">
+        <v>512</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="4">
+        <v>32</v>
+      </c>
+      <c r="F29" s="4">
+        <v>512</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="4">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4">
+        <v>512</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="4">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4">
+        <v>512</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cardapio_tms_notebook.xlsx
+++ b/cardapio_tms_notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{91DC609E-9E28-4110-BF60-859776182C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708D7C38-4078-4234-9390-EEB155AF7888}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{91DC609E-9E28-4110-BF60-859776182C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3A3FFC-F613-449D-81DB-A2771B87076F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{682419BA-5BBE-4A05-BEB1-E011B3D0590E}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>Bateria (Wh)</t>
   </si>
   <si>
-    <t>Armazenamento Interno</t>
+    <t>Armazenamento Interno (GB)</t>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/cardapio_tms_notebook.xlsx
+++ b/cardapio_tms_notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{91DC609E-9E28-4110-BF60-859776182C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3A3FFC-F613-449D-81DB-A2771B87076F}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{91DC609E-9E28-4110-BF60-859776182C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C4E2ED1-F7A6-4065-935E-707CB468C650}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{682419BA-5BBE-4A05-BEB1-E011B3D0590E}"/>
   </bookViews>
@@ -876,13 +876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CE4168-923F-4B69-B821-DEAF56581847}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" style="3" bestFit="1" customWidth="1"/>
@@ -896,7 +896,7 @@
     <col min="10" max="10" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="26" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1600,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="4">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>72</v>
